--- a/templates/invoice/renderer/spreadsheet.xlsx
+++ b/templates/invoice/renderer/spreadsheet.xlsx
@@ -247,12 +247,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -325,7 +325,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="11:11"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -476,8 +476,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>